--- a/EXCEL/Cumulative_Operational_Cost_Over_Time_2500_2_2_1.xlsx
+++ b/EXCEL/Cumulative_Operational_Cost_Over_Time_2500_2_2_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>425677.6671694662</v>
+        <v>425552.9232976858</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>426355.3343389324</v>
+        <v>426105.8465953716</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427033.0015083986</v>
+        <v>426658.7698930574</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427710.6686778648</v>
+        <v>427211.6931907432</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>428388.335847331</v>
+        <v>427764.616488429</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>429066.0030167972</v>
+        <v>428317.5397861148</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>429743.6701862634</v>
+        <v>428870.4630838007</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>430421.3373557296</v>
+        <v>429423.3863814865</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>431099.0045251958</v>
+        <v>429976.3096791723</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>431776.671694662</v>
+        <v>430529.2329768581</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432454.3388641282</v>
+        <v>431082.1562745439</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>433132.0060335944</v>
+        <v>431635.0795722297</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433809.6732030606</v>
+        <v>432188.0028699155</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434487.3403725268</v>
+        <v>432740.9261676013</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>435165.007541993</v>
+        <v>433293.8494652871</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>435842.6747114592</v>
+        <v>433846.7727629729</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>436520.3418809254</v>
+        <v>434399.6960606587</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>437198.0090503916</v>
+        <v>434952.6193583445</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>437875.6762198578</v>
+        <v>435505.5426560303</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>438553.343389324</v>
+        <v>436058.4659537162</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>439231.0105587902</v>
+        <v>436611.389251402</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>439908.6777282564</v>
+        <v>437164.3125490878</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>440586.3448977226</v>
+        <v>437717.2358467736</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>441264.0120671888</v>
+        <v>438270.1591444594</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>441941.679236655</v>
+        <v>438823.0824421452</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>442619.3464061212</v>
+        <v>439376.005739831</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>443297.0135755874</v>
+        <v>439928.9290375168</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>443974.6807450536</v>
+        <v>440481.8523352026</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>444652.3479145198</v>
+        <v>441034.7756328884</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>445330.015083986</v>
+        <v>441587.6989305742</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>446007.6822534522</v>
+        <v>442140.62222826</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>446685.3494229184</v>
+        <v>442693.5455259458</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>447363.0165923846</v>
+        <v>443246.4688236316</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>448040.6837618508</v>
+        <v>443799.3921213174</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>448718.350931317</v>
+        <v>444352.3154190033</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>449396.0181007832</v>
+        <v>444905.2387166891</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>450073.6852702494</v>
+        <v>445458.1620143749</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>450751.3524397156</v>
+        <v>446011.0853120607</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>451429.0196091818</v>
+        <v>446564.0086097465</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>452106.686778648</v>
+        <v>447116.9319074323</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>452784.3539481142</v>
+        <v>447669.8552051181</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>453462.0211175804</v>
+        <v>448222.7785028039</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>454139.6882870466</v>
+        <v>448775.7018004897</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>454817.3554565128</v>
+        <v>449328.6250981755</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>455495.022625979</v>
+        <v>449881.5483958613</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>456172.6897954452</v>
+        <v>450434.4716935472</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>456850.3569649114</v>
+        <v>450987.394991233</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>457528.0241343776</v>
+        <v>451540.3182889188</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>458205.6913038438</v>
+        <v>452093.2415866046</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>458883.35847331</v>
+        <v>452646.1648842904</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>459561.0256427762</v>
+        <v>453199.0881819762</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>460238.6928122424</v>
+        <v>453752.011479662</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>460916.3599817086</v>
+        <v>454304.9347773478</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>461594.0271511748</v>
+        <v>454857.8580750336</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>462271.694320641</v>
+        <v>455410.7813727194</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>462949.3614901072</v>
+        <v>455963.7046704052</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>463627.0286595734</v>
+        <v>456516.6279680911</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>464304.6958290396</v>
+        <v>457069.5512657769</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>464982.3629985058</v>
+        <v>457622.4745634627</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>465660.030167972</v>
+        <v>458175.3978611485</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>466337.6973374382</v>
+        <v>458728.3211588343</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>467015.3645069044</v>
+        <v>459281.2444565201</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>467693.0316763706</v>
+        <v>459834.1677542059</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>468370.6988458368</v>
+        <v>460387.0910518917</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>469048.366015303</v>
+        <v>460940.0143495775</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>469726.0331847692</v>
+        <v>461492.9376472633</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>470403.7003542354</v>
+        <v>462045.8609449491</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>471081.3675237016</v>
+        <v>462598.784242635</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>471759.0346931678</v>
+        <v>463151.7075403208</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>472436.701862634</v>
+        <v>463704.6308380066</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>473114.3690321002</v>
+        <v>464257.5541356924</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>473792.0362015664</v>
+        <v>464810.4774333782</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>474469.7033710326</v>
+        <v>465363.400731064</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>475147.3705404988</v>
+        <v>465916.3240287498</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>475825.037709965</v>
+        <v>466469.2473264356</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>476502.7048794312</v>
+        <v>467022.1706241214</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>477180.3720488974</v>
+        <v>467575.0939218072</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>477858.0392183636</v>
+        <v>468128.017219493</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>478535.7063878298</v>
+        <v>468680.9405171789</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>479213.373557296</v>
+        <v>469233.8638148647</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>479891.0407267621</v>
+        <v>469786.7871125505</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>480568.7078962284</v>
+        <v>470339.7104102363</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>481246.3750656946</v>
+        <v>470892.6337079221</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>481924.0422351608</v>
+        <v>471445.5570056079</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>482601.709404627</v>
+        <v>471998.4803032937</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>483279.3765740932</v>
+        <v>472551.4036009795</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>483957.0437435594</v>
+        <v>473104.3268986653</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>484634.7109130256</v>
+        <v>473657.2501963511</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>485312.3780824918</v>
+        <v>474210.1734940369</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>485990.045251958</v>
+        <v>474763.0967917228</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>486667.7124214242</v>
+        <v>475316.0200894086</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>487345.3795908904</v>
+        <v>475868.9433870944</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>488023.0467603566</v>
+        <v>476421.8666847802</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>488700.7139298228</v>
+        <v>476974.789982466</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>489378.381099289</v>
+        <v>477527.7132801518</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>490056.0482687552</v>
+        <v>478080.6365778376</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>490733.7154382213</v>
+        <v>478633.5598755234</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>491411.3826076876</v>
+        <v>479186.4831732092</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>492089.0497771538</v>
+        <v>479739.406470895</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>492766.71694662</v>
+        <v>480292.3297685808</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>493444.3841160862</v>
+        <v>480845.2530662667</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>494122.0512855524</v>
+        <v>481398.1763639525</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>494799.7184550186</v>
+        <v>481951.0996616383</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>495477.3856244847</v>
+        <v>482504.0229593241</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>496155.052793951</v>
+        <v>483056.9462570099</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>496832.7199634172</v>
+        <v>483609.8695546957</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>497510.3871328834</v>
+        <v>484162.7928523815</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>498188.0543023496</v>
+        <v>484715.7161500673</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>498865.7214718158</v>
+        <v>485268.6394477531</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>499543.388641282</v>
+        <v>485821.5627454389</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>500221.0558107482</v>
+        <v>486374.4860431247</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>500898.7229802144</v>
+        <v>486927.4093408105</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>501576.3901496805</v>
+        <v>487480.3326384963</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>502254.0573191468</v>
+        <v>488033.2559361821</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>502931.724488613</v>
+        <v>488586.1792338679</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>503609.3916580792</v>
+        <v>489139.1025315538</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>504287.0588275454</v>
+        <v>489692.0258292396</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>504964.7259970116</v>
+        <v>490244.9491269254</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>505642.3931664778</v>
+        <v>490797.8724246112</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>506320.0603359439</v>
+        <v>491350.795722297</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>506997.7275054102</v>
+        <v>491903.7190199828</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>507675.3946748764</v>
+        <v>492456.6423176686</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>508353.0618443426</v>
+        <v>493009.5656153544</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>509030.7290138088</v>
+        <v>493562.4889130402</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>509708.396183275</v>
+        <v>494115.412210726</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>510386.0633527412</v>
+        <v>494668.3355084118</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>511063.7305222074</v>
+        <v>495221.2588060977</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>511741.3976916736</v>
+        <v>495774.1821037835</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>512419.0648611397</v>
+        <v>496327.1054014693</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>513096.732030606</v>
+        <v>496880.0286991551</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>513774.3992000722</v>
+        <v>497432.9519968409</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>514452.0663695384</v>
+        <v>497985.8752945267</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>515129.7335390046</v>
+        <v>498538.7985922125</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>515807.4007084708</v>
+        <v>499091.7218898983</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>516485.067877937</v>
+        <v>499644.6451875841</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>517162.7350474031</v>
+        <v>500197.5684852699</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>517840.4022168693</v>
+        <v>500750.4917829557</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>518518.0693863356</v>
+        <v>501303.4150806415</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>519195.7365558018</v>
+        <v>501856.3383783273</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>519873.403725268</v>
+        <v>502409.2616760131</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>520551.0708947342</v>
+        <v>502962.1849736989</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>521228.7380642004</v>
+        <v>503515.1082713847</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>521906.4052336665</v>
+        <v>504068.0315690705</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>522584.0724031328</v>
+        <v>504620.9548667564</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>523261.7395725989</v>
+        <v>505173.8781644422</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>523939.4067420652</v>
+        <v>505726.801462128</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>524617.0739115314</v>
+        <v>506279.7247598138</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>525294.7410809975</v>
+        <v>506832.6480574996</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>525972.4082504638</v>
+        <v>507385.5713551854</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>526650.0754199299</v>
+        <v>507938.4946528712</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>527327.7425893962</v>
+        <v>508491.417950557</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>528005.4097588623</v>
+        <v>509044.3412482428</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>528683.0769283286</v>
+        <v>509597.2645459286</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>529360.7440977948</v>
+        <v>510150.1878436145</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>530038.411267261</v>
+        <v>510703.1111413003</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>530716.0784367272</v>
+        <v>511256.0344389861</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>531393.7456061933</v>
+        <v>511808.9577366719</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>532071.4127756596</v>
+        <v>512361.8810343577</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>532749.0799451257</v>
+        <v>512914.8043320435</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>533426.747114592</v>
+        <v>513467.7276297293</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>534104.4142840581</v>
+        <v>514020.6509274151</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>534782.0814535243</v>
+        <v>514573.5742251009</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>535459.7486229906</v>
+        <v>515126.4975227867</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>536137.4157924567</v>
+        <v>515679.4208204725</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>536815.082961923</v>
+        <v>516232.3441181583</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>537492.7501313891</v>
+        <v>516785.2674158441</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>538170.4173008554</v>
+        <v>517338.1907135299</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>538848.0844703215</v>
+        <v>517891.1140112157</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>539525.7516397878</v>
+        <v>518444.0373089015</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>540203.418809254</v>
+        <v>518996.9606065874</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>540881.0859787201</v>
+        <v>519549.8839042732</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>541558.7531481864</v>
+        <v>520102.807201959</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>542236.4203176525</v>
+        <v>520655.7304996448</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>542914.0874871188</v>
+        <v>521208.6537973306</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>543591.7546565849</v>
+        <v>521761.5770950164</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>544269.4218260512</v>
+        <v>522314.5003927022</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>544947.0889955173</v>
+        <v>522867.423690388</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>545624.7561649836</v>
+        <v>523420.3469880738</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>546302.4233344498</v>
+        <v>523973.2702857596</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>546980.0905039159</v>
+        <v>524526.1935834455</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>547657.7576733822</v>
+        <v>525079.1168811313</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>548335.4248428483</v>
+        <v>525632.0401788171</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>549013.0920123146</v>
+        <v>526184.9634765029</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>549690.7591817807</v>
+        <v>526737.8867741887</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>550368.426351247</v>
+        <v>527290.8100718745</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>551046.0935207132</v>
+        <v>527843.7333695603</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>551723.7606901794</v>
+        <v>528396.6566672461</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>552401.4278596456</v>
+        <v>528949.5799649319</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>553079.0950291117</v>
+        <v>529502.5032626177</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>553756.762198578</v>
+        <v>530055.4265603035</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>554434.4293680441</v>
+        <v>530608.3498579893</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>555112.0965375104</v>
+        <v>531161.2731556752</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>555789.7637069765</v>
+        <v>531714.196453361</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>556467.4308764427</v>
+        <v>532267.1197510468</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>557145.098045909</v>
+        <v>532820.0430487326</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>557822.7652153751</v>
+        <v>533372.9663464184</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>558500.4323848414</v>
+        <v>533925.8896441042</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>559178.0995543075</v>
+        <v>534478.81294179</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>559855.7667237738</v>
+        <v>535031.7362394758</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>560533.4338932399</v>
+        <v>535584.6595371616</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>561211.1010627062</v>
+        <v>536137.5828348475</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>561888.7682321724</v>
+        <v>536690.5061325333</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>562566.4354016385</v>
+        <v>537243.4294302191</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>563244.1025711048</v>
+        <v>537796.3527279049</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>563921.7697405709</v>
+        <v>538349.2760255907</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>564599.4369100372</v>
+        <v>538902.1993232765</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>565277.1040795033</v>
+        <v>539455.1226209623</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>565954.7712489695</v>
+        <v>540008.0459186481</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>566632.4384184357</v>
+        <v>540560.9692163339</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>567310.105587902</v>
+        <v>541113.8925140197</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>567987.7727573682</v>
+        <v>541666.8158117055</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>568665.4399268343</v>
+        <v>542219.7391093913</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>569343.1070963006</v>
+        <v>542772.6624070772</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>570020.7742657667</v>
+        <v>543325.585704763</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>570698.441435233</v>
+        <v>543878.5090024488</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>571376.1086046991</v>
+        <v>544431.4323001346</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>572053.7757741653</v>
+        <v>544984.3555978204</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>572731.4429436316</v>
+        <v>545537.2788955062</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>573409.1101130978</v>
+        <v>546090.202193192</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>574086.777282564</v>
+        <v>546643.1254908778</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>574764.4444520301</v>
+        <v>547196.0487885636</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>575442.1116214964</v>
+        <v>547748.9720862494</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>576119.7787909625</v>
+        <v>548301.8953839352</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>576797.4459604288</v>
+        <v>548854.818681621</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>577475.1131298949</v>
+        <v>549407.7419793068</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>578152.7802993611</v>
+        <v>549960.6652769926</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>578830.4474688274</v>
+        <v>550513.5885746784</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>579508.1146382935</v>
+        <v>551066.5118723642</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>580185.7818077598</v>
+        <v>551619.43517005</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>580863.4489772259</v>
+        <v>552172.3584677358</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>581541.1161466921</v>
+        <v>552725.2817654217</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>582218.7833161583</v>
+        <v>553278.2050631075</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>582896.4504856246</v>
+        <v>553831.1283607933</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>583574.1176550908</v>
+        <v>554384.0516584791</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>584251.7848245569</v>
+        <v>554936.974956165</v>
       </c>
     </row>
     <row r="238">
@@ -2338,511 +2338,1111 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>584929.4519940232</v>
+        <v>555489.8982538508</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>236.4635533883471</v>
+        <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>585235.5794413354</v>
+        <v>556042.8215515366</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>237.4635533883471</v>
+        <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>585541.7068886475</v>
+        <v>556595.7448492224</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>238.4635533883471</v>
+        <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>585847.8343359597</v>
+        <v>557148.6681469082</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>239.4635533883471</v>
+        <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>586153.961783272</v>
+        <v>557701.591444594</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>240.4635533883471</v>
+        <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>586460.0892305841</v>
+        <v>558254.5147422798</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>241.4635533883471</v>
+        <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>586766.2166778963</v>
+        <v>558807.4380399656</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>242.4635533883471</v>
+        <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>587072.3441252086</v>
+        <v>559360.3613376514</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>243.4635533883471</v>
+        <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>587378.4715725208</v>
+        <v>559913.2846353372</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>244.4635533883471</v>
+        <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>587684.5990198329</v>
+        <v>560466.207933023</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>245.4635533883471</v>
+        <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>587990.7264671451</v>
+        <v>561019.1312307088</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>246.4635533883471</v>
+        <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>588296.8539144574</v>
+        <v>561572.0545283946</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>247.4635533883471</v>
+        <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>588602.9813617695</v>
+        <v>562124.9778260804</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>248.4635533883471</v>
+        <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>588909.1088090817</v>
+        <v>562677.9011237662</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>249.4635533883471</v>
+        <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>589215.236256394</v>
+        <v>563230.824421452</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>250.4635533883471</v>
+        <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>589521.3637037061</v>
+        <v>563783.7477191378</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>251.4635533883471</v>
+        <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>589827.4911510183</v>
+        <v>564336.6710168236</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>252.4635533883471</v>
+        <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>590133.6185983305</v>
+        <v>564889.5943145095</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>253.4635533883471</v>
+        <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>590439.7460456426</v>
+        <v>565442.5176121953</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>254.4635533883471</v>
+        <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>590745.8734929549</v>
+        <v>565995.4409098811</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>255.4635533883471</v>
+        <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>591052.0009402671</v>
+        <v>566548.3642075669</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>256.4635533883471</v>
+        <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>591358.1283875793</v>
+        <v>567101.2875052528</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>257.4635533883471</v>
+        <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>591664.2558348915</v>
+        <v>567654.2108029386</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>258.4635533883471</v>
+        <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>591970.3832822037</v>
+        <v>568207.1341006244</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>259.4635533883471</v>
+        <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>592276.5107295159</v>
+        <v>568760.0573983102</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>260.4635533883471</v>
+        <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>592582.638176828</v>
+        <v>569312.980695996</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>261.4635533883471</v>
+        <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>592888.7656241403</v>
+        <v>569865.9039936818</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>262.4635533883471</v>
+        <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>593194.8930714525</v>
+        <v>570418.8272913676</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>263.4635533883471</v>
+        <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>593501.0205187646</v>
+        <v>570971.7505890534</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>264.4635533883471</v>
+        <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>593807.1479660769</v>
+        <v>571524.6738867392</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>265.4635533883471</v>
+        <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>594113.2754133891</v>
+        <v>572077.597184425</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>266.4635533883471</v>
+        <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>594419.4028607013</v>
+        <v>572630.5204821108</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>267.4635533883471</v>
+        <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>594725.5303080134</v>
+        <v>573183.4437797966</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>268.4635533883471</v>
+        <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>595031.6577553257</v>
+        <v>573736.3670774824</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>269.4635533883471</v>
+        <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>595337.7852026379</v>
+        <v>574289.2903751682</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>270.4635533883471</v>
+        <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>595643.91264995</v>
+        <v>574842.213672854</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>271.4635533883471</v>
+        <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>595950.0400972622</v>
+        <v>575395.1369705398</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>272.4635533883471</v>
+        <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>596256.1675445745</v>
+        <v>575948.0602682256</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>273.4635533883471</v>
+        <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>596562.2949918866</v>
+        <v>576500.9835659114</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>274.4635533883471</v>
+        <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>596868.4224391988</v>
+        <v>577053.9068635972</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>275.4635533883471</v>
+        <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>597174.5498865111</v>
+        <v>577606.830161283</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>276.4635533883471</v>
+        <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>597480.6773338232</v>
+        <v>578159.7534589688</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>277.4635533883471</v>
+        <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>597786.8047811354</v>
+        <v>578712.6767566546</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>278.4635533883471</v>
+        <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>598092.9322284476</v>
+        <v>579265.6000543404</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>279.4635533883471</v>
+        <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>598399.0596757599</v>
+        <v>579818.5233520262</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>280.4635533883471</v>
+        <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>598705.187123072</v>
+        <v>580371.446649712</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>281.4635533883471</v>
+        <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>599011.3145703842</v>
+        <v>580924.3699473978</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>282.4635533883471</v>
+        <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>599317.4420176964</v>
+        <v>581477.2932450837</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>283.4635533883471</v>
+        <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>599623.5694650086</v>
+        <v>582030.2165427695</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>284.4635533883471</v>
+        <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>599929.6969123208</v>
+        <v>582583.1398404553</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>285.4635533883471</v>
+        <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>600235.824359633</v>
+        <v>583136.0631381411</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>286.4635533883471</v>
+        <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>600541.9518069451</v>
+        <v>583688.986435827</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>287.4635533883471</v>
+        <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>600848.0792542574</v>
+        <v>584241.9097335128</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>288.4635533883471</v>
+        <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>601154.2067015696</v>
+        <v>584794.8330311986</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>289.4635533883471</v>
+        <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>601460.3341488817</v>
+        <v>585347.7563288844</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>290.4635533883471</v>
+        <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>601766.461596194</v>
+        <v>585900.6796265702</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>291.4635533883471</v>
+        <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>602072.5890435062</v>
+        <v>586453.602924256</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>292.4635533883471</v>
+        <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>602378.7164908184</v>
+        <v>587006.5262219418</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>293.4635533883471</v>
+        <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>602684.8439381305</v>
+        <v>587559.4495196276</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>294.4635533883471</v>
+        <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>602990.9713854428</v>
+        <v>588112.3728173134</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>295.4635533883471</v>
+        <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>603297.098832755</v>
+        <v>588665.2961149992</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>296.4635533883471</v>
+        <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>603603.2262800671</v>
+        <v>589218.219412685</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>297.4635533883471</v>
+        <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>603909.3537273793</v>
+        <v>589771.1427103708</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>298.4635533883471</v>
+        <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>604215.4811746916</v>
+        <v>590324.0660080566</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>590876.9893057424</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>591429.9126034282</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>591982.835901114</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>592535.7591987998</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>593088.6824964856</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>593641.6057941715</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>594194.5290918573</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>594747.4523895432</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>595300.375687229</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>595853.2989849148</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>596406.2222826006</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>596959.1455802864</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>311.4635533883471</v>
+      </c>
+      <c r="B314" t="n">
+        <v>597215.7891304804</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>312.4635533883471</v>
+      </c>
+      <c r="B315" t="n">
+        <v>597472.4326806745</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>313.4635533883471</v>
+      </c>
+      <c r="B316" t="n">
+        <v>597729.0762308685</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>314.4635533883471</v>
+      </c>
+      <c r="B317" t="n">
+        <v>597985.7197810624</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>315.4635533883471</v>
+      </c>
+      <c r="B318" t="n">
+        <v>598242.3633312566</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>316.4635533883471</v>
+      </c>
+      <c r="B319" t="n">
+        <v>598499.0068814505</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>317.4635533883471</v>
+      </c>
+      <c r="B320" t="n">
+        <v>598755.6504316445</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>318.4635533883471</v>
+      </c>
+      <c r="B321" t="n">
+        <v>599012.2939818386</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>319.4635533883471</v>
+      </c>
+      <c r="B322" t="n">
+        <v>599268.9375320326</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>320.4635533883471</v>
+      </c>
+      <c r="B323" t="n">
+        <v>599525.5810822267</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>321.4635533883471</v>
+      </c>
+      <c r="B324" t="n">
+        <v>599782.2246324207</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>322.4635533883471</v>
+      </c>
+      <c r="B325" t="n">
+        <v>600038.8681826147</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>323.4635533883471</v>
+      </c>
+      <c r="B326" t="n">
+        <v>600295.5117328088</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>324.4635533883471</v>
+      </c>
+      <c r="B327" t="n">
+        <v>600552.1552830028</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>325.4635533883471</v>
+      </c>
+      <c r="B328" t="n">
+        <v>600808.7988331967</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>326.4635533883471</v>
+      </c>
+      <c r="B329" t="n">
+        <v>601065.4423833909</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>327.4635533883471</v>
+      </c>
+      <c r="B330" t="n">
+        <v>601322.0859335848</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>328.4635533883471</v>
+      </c>
+      <c r="B331" t="n">
+        <v>601578.7294837788</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>329.4635533883471</v>
+      </c>
+      <c r="B332" t="n">
+        <v>601835.3730339729</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>330.4635533883471</v>
+      </c>
+      <c r="B333" t="n">
+        <v>602092.0165841669</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>331.4635533883471</v>
+      </c>
+      <c r="B334" t="n">
+        <v>602348.6601343609</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>332.4635533883471</v>
+      </c>
+      <c r="B335" t="n">
+        <v>602605.303684555</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>333.4635533883471</v>
+      </c>
+      <c r="B336" t="n">
+        <v>602861.947234749</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>334.4635533883471</v>
+      </c>
+      <c r="B337" t="n">
+        <v>603118.5907849431</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>335.4635533883471</v>
+      </c>
+      <c r="B338" t="n">
+        <v>603375.2343351371</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>336.4635533883471</v>
+      </c>
+      <c r="B339" t="n">
+        <v>603631.8778853311</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>337.4635533883471</v>
+      </c>
+      <c r="B340" t="n">
+        <v>603888.5214355252</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>338.4635533883471</v>
+      </c>
+      <c r="B341" t="n">
+        <v>604145.1649857191</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>339.4635533883471</v>
+      </c>
+      <c r="B342" t="n">
+        <v>604401.8085359131</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>340.4635533883471</v>
+      </c>
+      <c r="B343" t="n">
+        <v>604658.4520861072</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>341.4635533883471</v>
+      </c>
+      <c r="B344" t="n">
+        <v>604915.0956363012</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>342.4635533883471</v>
+      </c>
+      <c r="B345" t="n">
+        <v>605171.7391864952</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>343.4635533883471</v>
+      </c>
+      <c r="B346" t="n">
+        <v>605428.3827366893</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>344.4635533883471</v>
+      </c>
+      <c r="B347" t="n">
+        <v>605685.0262868833</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>345.4635533883471</v>
+      </c>
+      <c r="B348" t="n">
+        <v>605941.6698370773</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>346.4635533883471</v>
+      </c>
+      <c r="B349" t="n">
+        <v>606198.3133872714</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>347.4635533883471</v>
+      </c>
+      <c r="B350" t="n">
+        <v>606454.9569374654</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>348.4635533883471</v>
+      </c>
+      <c r="B351" t="n">
+        <v>606711.6004876595</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>349.4635533883471</v>
+      </c>
+      <c r="B352" t="n">
+        <v>606968.2440378534</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>350.4635533883471</v>
+      </c>
+      <c r="B353" t="n">
+        <v>607224.8875880474</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>351.4635533883471</v>
+      </c>
+      <c r="B354" t="n">
+        <v>607481.5311382415</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>352.4635533883471</v>
+      </c>
+      <c r="B355" t="n">
+        <v>607738.1746884355</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>353.4635533883471</v>
+      </c>
+      <c r="B356" t="n">
+        <v>607994.8182386295</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>354.4635533883471</v>
+      </c>
+      <c r="B357" t="n">
+        <v>608251.4617888236</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>355.4635533883471</v>
+      </c>
+      <c r="B358" t="n">
+        <v>608508.1053390176</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>356.4635533883471</v>
+      </c>
+      <c r="B359" t="n">
+        <v>608764.7488892116</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>357.4635533883471</v>
+      </c>
+      <c r="B360" t="n">
+        <v>609021.3924394057</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>358.4635533883471</v>
+      </c>
+      <c r="B361" t="n">
+        <v>609278.0359895997</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>359.4635533883471</v>
+      </c>
+      <c r="B362" t="n">
+        <v>609534.6795397936</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>360.4635533883471</v>
+      </c>
+      <c r="B363" t="n">
+        <v>609791.3230899877</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>361.4635533883471</v>
+      </c>
+      <c r="B364" t="n">
+        <v>610047.9666401817</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>362.4635533883471</v>
+      </c>
+      <c r="B365" t="n">
+        <v>610304.6101903757</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>363.4635533883471</v>
+      </c>
+      <c r="B366" t="n">
+        <v>610561.2537405698</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>364.4635533883471</v>
+      </c>
+      <c r="B367" t="n">
+        <v>610817.8972907638</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>365.4635533883471</v>
+      </c>
+      <c r="B368" t="n">
+        <v>611074.5408409579</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>366.4635533883471</v>
+      </c>
+      <c r="B369" t="n">
+        <v>611331.1843911519</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>367.4635533883471</v>
+      </c>
+      <c r="B370" t="n">
+        <v>611587.8279413459</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>368.4635533883471</v>
+      </c>
+      <c r="B371" t="n">
+        <v>611844.47149154</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>369.4635533883471</v>
+      </c>
+      <c r="B372" t="n">
+        <v>612101.115041734</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>370.4635533883471</v>
+      </c>
+      <c r="B373" t="n">
+        <v>612357.7585919279</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>371.4635533883471</v>
+      </c>
+      <c r="B374" t="n">
+        <v>612614.402142122</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>372.4635533883471</v>
+      </c>
+      <c r="B375" t="n">
+        <v>612871.045692316</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>373.4635533883471</v>
+      </c>
+      <c r="B376" t="n">
+        <v>613127.68924251</v>
       </c>
     </row>
   </sheetData>
